--- a/Covua.xlsx
+++ b/Covua.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="8-7-2021" sheetId="1" r:id="rId1"/>
-    <sheet name="8-8-2021" sheetId="2" r:id="rId2"/>
+    <sheet name="8-09-2021" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
   <si>
     <t>Trắng</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Đen</t>
   </si>
   <si>
-    <t>8-8-</t>
-  </si>
-  <si>
     <t>Xa8</t>
   </si>
   <si>
@@ -154,6 +151,57 @@
   </si>
   <si>
     <t>Hd1#</t>
+  </si>
+  <si>
+    <t>Vd8</t>
+  </si>
+  <si>
+    <t>Hình 353</t>
+  </si>
+  <si>
+    <t>Hình 354</t>
+  </si>
+  <si>
+    <t>Xb7</t>
+  </si>
+  <si>
+    <t>Vg8</t>
+  </si>
+  <si>
+    <t>Hg7#</t>
+  </si>
+  <si>
+    <t>Xg2</t>
+  </si>
+  <si>
+    <t>Vh7</t>
+  </si>
+  <si>
+    <t>Hình 355</t>
+  </si>
+  <si>
+    <t>Va8</t>
+  </si>
+  <si>
+    <t>Hd8#</t>
+  </si>
+  <si>
+    <t>Hh7</t>
+  </si>
+  <si>
+    <t>Vc8</t>
+  </si>
+  <si>
+    <t>Hg8#</t>
+  </si>
+  <si>
+    <t>Xf7</t>
+  </si>
+  <si>
+    <t>Xa7</t>
+  </si>
+  <si>
+    <t>Hc7#</t>
   </si>
 </sst>
 </file>
@@ -189,8 +237,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -476,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +570,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -530,7 +579,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
@@ -539,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
@@ -547,37 +596,34 @@
       <c r="K2" t="s">
         <v>1</v>
       </c>
-      <c r="O2" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
         <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -585,49 +631,49 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -635,40 +681,40 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7">
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -676,18 +722,18 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -696,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
         <v>0</v>
@@ -705,7 +751,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J12" t="s">
         <v>0</v>
@@ -719,28 +765,28 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
         <v>33</v>
       </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" t="s">
         <v>38</v>
-      </c>
-      <c r="K13" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -748,19 +794,19 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I14">
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -768,28 +814,28 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -797,259 +843,216 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:U1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" customWidth="1"/>
+    <col min="4" max="4" width="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" customWidth="1"/>
+    <col min="8" max="8" width="1" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>44416</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
+      <c r="A1" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
       <c r="E3">
         <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
       <c r="E4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
       </c>
       <c r="E7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="E14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="E15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="E16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="E17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="E18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="E19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="E20">
-        <v>18</v>
-      </c>
-      <c r="H20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="E21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>22</v>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
